--- a/Code/Results/Cases/Case_8_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_62/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005766209007822</v>
+        <v>1.00385672267334</v>
       </c>
       <c r="D2">
-        <v>1.029819622230086</v>
+        <v>1.027914913504523</v>
       </c>
       <c r="E2">
-        <v>1.011418054811472</v>
+        <v>1.009781421630718</v>
       </c>
       <c r="F2">
-        <v>1.03606173282371</v>
+        <v>1.034627271699389</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05305060629305</v>
+        <v>1.052058150698972</v>
       </c>
       <c r="J2">
-        <v>1.027775811033827</v>
+        <v>1.025922688575222</v>
       </c>
       <c r="K2">
-        <v>1.040878584482672</v>
+        <v>1.038998579536357</v>
       </c>
       <c r="L2">
-        <v>1.022720577268761</v>
+        <v>1.02110614713688</v>
       </c>
       <c r="M2">
-        <v>1.047040531235359</v>
+        <v>1.045624385090661</v>
       </c>
       <c r="N2">
-        <v>1.029235370573032</v>
+        <v>1.02413187673233</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045801796445092</v>
+        <v>1.044681019030372</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039974980925611</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038654419384753</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02243750382453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009610290647318</v>
+        <v>1.007356862241259</v>
       </c>
       <c r="D3">
-        <v>1.032365572029934</v>
+        <v>1.030155480552094</v>
       </c>
       <c r="E3">
-        <v>1.014445843622009</v>
+        <v>1.012508546756324</v>
       </c>
       <c r="F3">
-        <v>1.038680724202742</v>
+        <v>1.037011653868261</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I3">
-        <v>1.053895485407372</v>
+        <v>1.052742519533444</v>
       </c>
       <c r="J3">
-        <v>1.029842354355727</v>
+        <v>1.027648961331125</v>
       </c>
       <c r="K3">
-        <v>1.042600423065459</v>
+        <v>1.040416524767415</v>
       </c>
       <c r="L3">
-        <v>1.024897164469602</v>
+        <v>1.022983841514609</v>
       </c>
       <c r="M3">
-        <v>1.048841490139994</v>
+        <v>1.047191891687505</v>
       </c>
       <c r="N3">
-        <v>1.031304848623481</v>
+        <v>1.025099776395142</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047227122903793</v>
+        <v>1.045921587212058</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041189806611893</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039654089290738</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022715787689914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012054254160123</v>
+        <v>1.009584197649911</v>
       </c>
       <c r="D4">
-        <v>1.033986448962183</v>
+        <v>1.031583328453152</v>
       </c>
       <c r="E4">
-        <v>1.016376738574855</v>
+        <v>1.014249795292735</v>
       </c>
       <c r="F4">
-        <v>1.040350697743248</v>
+        <v>1.038533511013425</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054420094896679</v>
+        <v>1.053165477284111</v>
       </c>
       <c r="J4">
-        <v>1.031154557514496</v>
+        <v>1.028745875945978</v>
       </c>
       <c r="K4">
-        <v>1.043691287070911</v>
+        <v>1.04131494723615</v>
       </c>
       <c r="L4">
-        <v>1.026281448509114</v>
+        <v>1.024179226967123</v>
       </c>
       <c r="M4">
-        <v>1.049985345977914</v>
+        <v>1.048188092787358</v>
       </c>
       <c r="N4">
-        <v>1.032618915261248</v>
+        <v>1.025714798879617</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048132399205644</v>
+        <v>1.046710007294726</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041962031280101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040290325990686</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022889699930273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013074598046777</v>
+        <v>1.010514420419768</v>
       </c>
       <c r="D5">
-        <v>1.034665301854469</v>
+        <v>1.032181834802835</v>
       </c>
       <c r="E5">
-        <v>1.017184664876287</v>
+        <v>1.014978756075289</v>
       </c>
       <c r="F5">
-        <v>1.041049555995889</v>
+        <v>1.039170736799337</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054637307683002</v>
+        <v>1.053340331888333</v>
       </c>
       <c r="J5">
-        <v>1.03170328264869</v>
+        <v>1.029204827236024</v>
       </c>
       <c r="K5">
-        <v>1.044148025889633</v>
+        <v>1.041691505303945</v>
       </c>
       <c r="L5">
-        <v>1.026860503677496</v>
+        <v>1.024679546871236</v>
       </c>
       <c r="M5">
-        <v>1.050463731261278</v>
+        <v>1.048604978113446</v>
       </c>
       <c r="N5">
-        <v>1.033168419648072</v>
+        <v>1.02597212463353</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048511005032036</v>
+        <v>1.04703994119449</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042292130945262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040564450947783</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022962449069623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013248963626125</v>
+        <v>1.010673239869375</v>
       </c>
       <c r="D6">
-        <v>1.03478334531104</v>
+        <v>1.032286143935718</v>
       </c>
       <c r="E6">
-        <v>1.017323297030669</v>
+        <v>1.015103750142687</v>
       </c>
       <c r="F6">
-        <v>1.041169683968817</v>
+        <v>1.039280307238227</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054675767104852</v>
+        <v>1.053371547995711</v>
       </c>
       <c r="J6">
-        <v>1.03179861930162</v>
+        <v>1.029284674689109</v>
       </c>
       <c r="K6">
-        <v>1.044228770618312</v>
+        <v>1.041758541819244</v>
       </c>
       <c r="L6">
-        <v>1.026960724583837</v>
+        <v>1.024766168175638</v>
       </c>
       <c r="M6">
-        <v>1.050546850016864</v>
+        <v>1.04867756057561</v>
       </c>
       <c r="N6">
-        <v>1.033263891689984</v>
+        <v>1.026016893613994</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048576787230642</v>
+        <v>1.047097384829493</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042357941147745</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040621447215377</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022975904895754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01207766442182</v>
+        <v>1.009625747970022</v>
       </c>
       <c r="D7">
-        <v>1.034007369970823</v>
+        <v>1.031615996685259</v>
       </c>
       <c r="E7">
-        <v>1.016396584258742</v>
+        <v>1.014286260651645</v>
       </c>
       <c r="F7">
-        <v>1.040368409576567</v>
+        <v>1.03856119218373</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054429148594982</v>
+        <v>1.053180720890788</v>
       </c>
       <c r="J7">
-        <v>1.03117140844003</v>
+        <v>1.028780388678658</v>
       </c>
       <c r="K7">
-        <v>1.043709105926888</v>
+        <v>1.04134437182251</v>
       </c>
       <c r="L7">
-        <v>1.026298127715262</v>
+        <v>1.024212322782678</v>
       </c>
       <c r="M7">
-        <v>1.050000017610407</v>
+        <v>1.04821261674207</v>
       </c>
       <c r="N7">
-        <v>1.032635790117029</v>
+        <v>1.025786522004954</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048144010697704</v>
+        <v>1.046729416194998</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041994682492722</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040333204173755</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022898593993883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007086595634993</v>
+        <v>1.005122289213982</v>
       </c>
       <c r="D8">
-        <v>1.030700127606399</v>
+        <v>1.028732760811667</v>
       </c>
       <c r="E8">
-        <v>1.012458520745158</v>
+        <v>1.010776587885541</v>
       </c>
       <c r="F8">
-        <v>1.036962288057947</v>
+        <v>1.035482720475695</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053348261269688</v>
+        <v>1.052322939400185</v>
       </c>
       <c r="J8">
-        <v>1.028491209079509</v>
+        <v>1.026582941029257</v>
       </c>
       <c r="K8">
-        <v>1.041479703652931</v>
+        <v>1.039537101036104</v>
       </c>
       <c r="L8">
-        <v>1.023472337040294</v>
+        <v>1.021812535598638</v>
       </c>
       <c r="M8">
-        <v>1.047663818265343</v>
+        <v>1.046202584581103</v>
       </c>
       <c r="N8">
-        <v>1.029951784565993</v>
+        <v>1.024660861161272</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046295082580035</v>
+        <v>1.045138622382616</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040422876681466</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039060341386879</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022550861626783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9979289614762666</v>
+        <v>0.996809388000206</v>
       </c>
       <c r="D9">
-        <v>1.02464353994356</v>
+        <v>1.023418698285699</v>
       </c>
       <c r="E9">
-        <v>1.005279175207388</v>
+        <v>1.004334361665255</v>
       </c>
       <c r="F9">
-        <v>1.030751211623867</v>
+        <v>1.029843924103473</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051261596029414</v>
+        <v>1.050625358157646</v>
       </c>
       <c r="J9">
-        <v>1.023555066021445</v>
+        <v>1.022475320286462</v>
       </c>
       <c r="K9">
-        <v>1.037349056916142</v>
+        <v>1.036142915627533</v>
       </c>
       <c r="L9">
-        <v>1.018287178230308</v>
+        <v>1.017357506129758</v>
       </c>
       <c r="M9">
-        <v>1.043364323629812</v>
+        <v>1.0424706745081</v>
       </c>
       <c r="N9">
-        <v>1.025008631618603</v>
+        <v>1.022377026312486</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042892340022986</v>
+        <v>1.042185078653524</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037499072549188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036656981773204</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021870635380625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9916176903565754</v>
+        <v>0.9911850120583588</v>
       </c>
       <c r="D10">
-        <v>1.020504233248469</v>
+        <v>1.019858213461888</v>
       </c>
       <c r="E10">
-        <v>1.000373602056689</v>
+        <v>1.000029639281791</v>
       </c>
       <c r="F10">
-        <v>1.026571749782619</v>
+        <v>1.026116461430532</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049779801263971</v>
+        <v>1.049445829611936</v>
       </c>
       <c r="J10">
-        <v>1.020167873724875</v>
+        <v>1.019752787660726</v>
       </c>
       <c r="K10">
-        <v>1.034512889920149</v>
+        <v>1.033877945432163</v>
       </c>
       <c r="L10">
-        <v>1.014736114277798</v>
+        <v>1.014398358602865</v>
       </c>
       <c r="M10">
-        <v>1.040477263113981</v>
+        <v>1.040029659717312</v>
       </c>
       <c r="N10">
-        <v>1.021616629120455</v>
+        <v>1.021084512511268</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040658731796947</v>
+        <v>1.040304505687242</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035510527483199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035073996834997</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021417521798531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9891855787754046</v>
+        <v>0.9891213784639629</v>
       </c>
       <c r="D11">
-        <v>1.019045382019161</v>
+        <v>1.018686417984545</v>
       </c>
       <c r="E11">
-        <v>0.998547895067817</v>
+        <v>0.9985267971435925</v>
       </c>
       <c r="F11">
-        <v>1.025521143696428</v>
+        <v>1.025296784922831</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049332933290073</v>
+        <v>1.049148988628451</v>
       </c>
       <c r="J11">
-        <v>1.019015274940689</v>
+        <v>1.018953829723922</v>
       </c>
       <c r="K11">
-        <v>1.033616851256604</v>
+        <v>1.033264334954643</v>
       </c>
       <c r="L11">
-        <v>1.01349724801544</v>
+        <v>1.013476549492256</v>
       </c>
       <c r="M11">
-        <v>1.039977300221167</v>
+        <v>1.039756904973193</v>
       </c>
       <c r="N11">
-        <v>1.02046239351379</v>
+        <v>1.021083082796997</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040698162058833</v>
+        <v>1.040523832090756</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034909831847253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034676213730842</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021339911366486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9883802461476408</v>
+        <v>0.9884323583630742</v>
       </c>
       <c r="D12">
-        <v>1.018603618358188</v>
+        <v>1.018334103706381</v>
       </c>
       <c r="E12">
-        <v>0.9979659734783717</v>
+        <v>0.9980440359823189</v>
       </c>
       <c r="F12">
-        <v>1.025391578340895</v>
+        <v>1.025240183124483</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049228698327446</v>
+        <v>1.049091550584024</v>
       </c>
       <c r="J12">
-        <v>1.018684648053941</v>
+        <v>1.018734480150153</v>
       </c>
       <c r="K12">
-        <v>1.033382875547864</v>
+        <v>1.03311828347587</v>
       </c>
       <c r="L12">
-        <v>1.013132246252471</v>
+        <v>1.013208805360706</v>
       </c>
       <c r="M12">
-        <v>1.040047964682125</v>
+        <v>1.039899286867391</v>
       </c>
       <c r="N12">
-        <v>1.02013129709894</v>
+        <v>1.021154112447008</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041079668804794</v>
+        <v>1.040962106078882</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034744403415598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03457295269521</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021335973962381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9887902521646197</v>
+        <v>0.9887552660494413</v>
       </c>
       <c r="D13">
-        <v>1.018934736902618</v>
+        <v>1.018597447668663</v>
       </c>
       <c r="E13">
-        <v>0.9983152625580889</v>
+        <v>0.9983122963809274</v>
       </c>
       <c r="F13">
-        <v>1.025987245080878</v>
+        <v>1.025782701408824</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049397380632097</v>
+        <v>1.049225001540972</v>
       </c>
       <c r="J13">
-        <v>1.018982336584054</v>
+        <v>1.018948874020282</v>
       </c>
       <c r="K13">
-        <v>1.033665103584543</v>
+        <v>1.033333949552063</v>
       </c>
       <c r="L13">
-        <v>1.013430668143694</v>
+        <v>1.013427758853537</v>
       </c>
       <c r="M13">
-        <v>1.040590528237595</v>
+        <v>1.040389638413902</v>
       </c>
       <c r="N13">
-        <v>1.020429408380911</v>
+        <v>1.021231553777667</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041784726126951</v>
+        <v>1.041625918015595</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03494145487986</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034722696836864</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021394823198558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9896276312402176</v>
+        <v>0.9894439697329629</v>
       </c>
       <c r="D14">
-        <v>1.019516744371485</v>
+        <v>1.019064121805651</v>
       </c>
       <c r="E14">
-        <v>0.998981322980997</v>
+        <v>0.9988446256095477</v>
       </c>
       <c r="F14">
-        <v>1.026731884264385</v>
+        <v>1.026435763820303</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049638674637073</v>
+        <v>1.049406208940269</v>
       </c>
       <c r="J14">
-        <v>1.01947465189795</v>
+        <v>1.019298874647536</v>
       </c>
       <c r="K14">
-        <v>1.034096254968855</v>
+        <v>1.033651764240991</v>
       </c>
       <c r="L14">
-        <v>1.013939469779809</v>
+        <v>1.013805361053904</v>
       </c>
       <c r="M14">
-        <v>1.041183022458359</v>
+        <v>1.040892124565584</v>
       </c>
       <c r="N14">
-        <v>1.020922422839022</v>
+        <v>1.021291815700084</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042426053472318</v>
+        <v>1.042196122830684</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035247717838714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03494896122715</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021465966638968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9901024256278552</v>
+        <v>0.9898397800265861</v>
       </c>
       <c r="D15">
-        <v>1.019835851989744</v>
+        <v>1.01932181199395</v>
       </c>
       <c r="E15">
-        <v>0.9993525813667611</v>
+        <v>0.9991457775237652</v>
       </c>
       <c r="F15">
-        <v>1.027086928237014</v>
+        <v>1.026741864855009</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049762215758638</v>
+        <v>1.04949772539775</v>
       </c>
       <c r="J15">
-        <v>1.019739211548408</v>
+        <v>1.019487742342929</v>
       </c>
       <c r="K15">
-        <v>1.034323237877534</v>
+        <v>1.033818363370739</v>
       </c>
       <c r="L15">
-        <v>1.014214721820631</v>
+        <v>1.014011803921344</v>
       </c>
       <c r="M15">
-        <v>1.041446291429667</v>
+        <v>1.041107267289818</v>
       </c>
       <c r="N15">
-        <v>1.021187358194529</v>
+        <v>1.021317206997489</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042671606400234</v>
+        <v>1.042403642994158</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035414072889505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035073192938734</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021500709415333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9927039956554735</v>
+        <v>0.9920428498875188</v>
       </c>
       <c r="D16">
-        <v>1.021539220959577</v>
+        <v>1.020711550602311</v>
       </c>
       <c r="E16">
-        <v>1.001362798354734</v>
+        <v>1.000806189360799</v>
       </c>
       <c r="F16">
-        <v>1.028780983415699</v>
+        <v>1.028185956307836</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050383269582915</v>
+        <v>1.049955081421478</v>
       </c>
       <c r="J16">
-        <v>1.021132384105188</v>
+        <v>1.020497959134525</v>
       </c>
       <c r="K16">
-        <v>1.03549460277438</v>
+        <v>1.03468104666766</v>
       </c>
       <c r="L16">
-        <v>1.015670885039184</v>
+        <v>1.015124268056572</v>
       </c>
       <c r="M16">
-        <v>1.042614119917136</v>
+        <v>1.042029053530033</v>
       </c>
       <c r="N16">
-        <v>1.02258250921614</v>
+        <v>1.021477250127044</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043556018433612</v>
+        <v>1.043093571020033</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036245433702472</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035686605599852</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021669503626783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9942628519322372</v>
+        <v>0.9933904872288222</v>
       </c>
       <c r="D17">
-        <v>1.022542078706846</v>
+        <v>1.021544711850082</v>
       </c>
       <c r="E17">
-        <v>1.002559192091952</v>
+        <v>1.001818465046797</v>
       </c>
       <c r="F17">
-        <v>1.029686158284369</v>
+        <v>1.028956329670289</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050729832929602</v>
+        <v>1.050212967208394</v>
       </c>
       <c r="J17">
-        <v>1.021943299664213</v>
+        <v>1.021105050338759</v>
       </c>
       <c r="K17">
-        <v>1.036166080017354</v>
+        <v>1.035185242938402</v>
       </c>
       <c r="L17">
-        <v>1.016522497703055</v>
+        <v>1.01579468493328</v>
       </c>
       <c r="M17">
-        <v>1.043192960368424</v>
+        <v>1.042475008760747</v>
       </c>
       <c r="N17">
-        <v>1.023394576368271</v>
+        <v>1.021628833940697</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043884800426413</v>
+        <v>1.043317261701731</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036722777685513</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036045924825205</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02176268594176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9950568905221753</v>
+        <v>0.9940943811387004</v>
       </c>
       <c r="D18">
-        <v>1.023011703628857</v>
+        <v>1.021940039234901</v>
       </c>
       <c r="E18">
-        <v>1.003150227202839</v>
+        <v>1.002332399832</v>
       </c>
       <c r="F18">
-        <v>1.029949706073931</v>
+        <v>1.029160539161461</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050860502487848</v>
+        <v>1.050304706241043</v>
       </c>
       <c r="J18">
-        <v>1.02230795210584</v>
+        <v>1.021382367269707</v>
       </c>
       <c r="K18">
-        <v>1.03644470513647</v>
+        <v>1.035390508793619</v>
       </c>
       <c r="L18">
-        <v>1.016914804278871</v>
+        <v>1.016110994104031</v>
       </c>
       <c r="M18">
-        <v>1.043270746307878</v>
+        <v>1.042494216913918</v>
       </c>
       <c r="N18">
-        <v>1.023759746658191</v>
+        <v>1.021701595994307</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043709210419707</v>
+        <v>1.043095238686595</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036908145605195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036178284144351</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021787854915574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9951513778998112</v>
+        <v>0.9941967087222767</v>
       </c>
       <c r="D19">
-        <v>1.022993918858276</v>
+        <v>1.021927985804479</v>
       </c>
       <c r="E19">
-        <v>1.003187328454445</v>
+        <v>1.002378795545821</v>
       </c>
       <c r="F19">
-        <v>1.029621043170097</v>
+        <v>1.028835254655195</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050795230012082</v>
+        <v>1.050242248868578</v>
       </c>
       <c r="J19">
-        <v>1.022263113526351</v>
+        <v>1.021344843453652</v>
       </c>
       <c r="K19">
-        <v>1.03636472913866</v>
+        <v>1.035316078682266</v>
       </c>
       <c r="L19">
-        <v>1.016887020961665</v>
+        <v>1.016092270115557</v>
       </c>
       <c r="M19">
-        <v>1.042885432866103</v>
+        <v>1.042112170976033</v>
       </c>
       <c r="N19">
-        <v>1.023714844402776</v>
+        <v>1.021657254770175</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043079980028227</v>
+        <v>1.042468392977731</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036857990054254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036132677207387</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021749110902876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9932781739017156</v>
+        <v>0.9926029055290337</v>
       </c>
       <c r="D20">
-        <v>1.02160524895281</v>
+        <v>1.020766612402856</v>
       </c>
       <c r="E20">
-        <v>1.001665773522072</v>
+        <v>1.001107034305996</v>
       </c>
       <c r="F20">
-        <v>1.027676496238991</v>
+        <v>1.027068100535863</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050183929195449</v>
+        <v>1.049749370491847</v>
       </c>
       <c r="J20">
-        <v>1.021070692558222</v>
+        <v>1.020421981154148</v>
       </c>
       <c r="K20">
-        <v>1.035278544602609</v>
+        <v>1.034453876807869</v>
       </c>
       <c r="L20">
-        <v>1.015679395414999</v>
+        <v>1.015130445741144</v>
       </c>
       <c r="M20">
-        <v>1.041249540349702</v>
+        <v>1.040651122075043</v>
       </c>
       <c r="N20">
-        <v>1.0225207300601</v>
+        <v>1.021263454674</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041259384802454</v>
+        <v>1.040785800550762</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036093936008297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035527378077996</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02153238953346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9884658966458205</v>
+        <v>0.9886047248313238</v>
       </c>
       <c r="D21">
-        <v>1.01842669229415</v>
+        <v>1.018222850485514</v>
       </c>
       <c r="E21">
-        <v>0.9979269166061863</v>
+        <v>0.9980931540739326</v>
       </c>
       <c r="F21">
-        <v>1.024392136424813</v>
+        <v>1.024291403092416</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049003946885796</v>
+        <v>1.048900754133033</v>
       </c>
       <c r="J21">
-        <v>1.018453896631977</v>
+        <v>1.018586726507366</v>
       </c>
       <c r="K21">
-        <v>1.033067177140069</v>
+        <v>1.032867018586741</v>
       </c>
       <c r="L21">
-        <v>1.012947670914424</v>
+        <v>1.013110742512551</v>
       </c>
       <c r="M21">
-        <v>1.038925673090736</v>
+        <v>1.038826732279658</v>
       </c>
       <c r="N21">
-        <v>1.01990021798349</v>
+        <v>1.021048842366044</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039379448810604</v>
+        <v>1.039301143666171</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034533648176115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034408966646663</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021226056841521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9853930337660327</v>
+        <v>0.9860314807553083</v>
       </c>
       <c r="D22">
-        <v>1.016405260278266</v>
+        <v>1.016593358844784</v>
       </c>
       <c r="E22">
-        <v>0.9955494740999211</v>
+        <v>0.9961608438047871</v>
       </c>
       <c r="F22">
-        <v>1.022336455033914</v>
+        <v>1.022549088465494</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048243706734181</v>
+        <v>1.048344746141913</v>
       </c>
       <c r="J22">
-        <v>1.016788003910068</v>
+        <v>1.017397249398367</v>
       </c>
       <c r="K22">
-        <v>1.031658583786045</v>
+        <v>1.031843112557197</v>
       </c>
       <c r="L22">
-        <v>1.011209615368751</v>
+        <v>1.011808740718074</v>
       </c>
       <c r="M22">
-        <v>1.037478039775343</v>
+        <v>1.037686698784042</v>
       </c>
       <c r="N22">
-        <v>1.018231959502834</v>
+        <v>1.020856606027764</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038233741402167</v>
+        <v>1.038398881519668</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033524200686586</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033670208792128</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021026057129198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9870190742950942</v>
+        <v>0.987365141282467</v>
       </c>
       <c r="D23">
-        <v>1.017470118146238</v>
+        <v>1.017431757355439</v>
       </c>
       <c r="E23">
-        <v>0.9968052632798609</v>
+        <v>0.9971550535182773</v>
       </c>
       <c r="F23">
-        <v>1.023422196150454</v>
+        <v>1.023452934679306</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048644065589625</v>
+        <v>1.048627081445029</v>
       </c>
       <c r="J23">
-        <v>1.017665918451257</v>
+        <v>1.017996623520457</v>
       </c>
       <c r="K23">
-        <v>1.032398268095882</v>
+        <v>1.032360616796571</v>
       </c>
       <c r="L23">
-        <v>1.012125989511373</v>
+        <v>1.012468957112941</v>
       </c>
       <c r="M23">
-        <v>1.038241099632904</v>
+        <v>1.038271278268339</v>
       </c>
       <c r="N23">
-        <v>1.01911112078337</v>
+        <v>1.020870987780318</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.038837653769465</v>
+        <v>1.038861538190846</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034037548010227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034025523024784</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021123520379898</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9933070704202965</v>
+        <v>0.9926310398152911</v>
       </c>
       <c r="D24">
-        <v>1.021604050528654</v>
+        <v>1.020764478373125</v>
       </c>
       <c r="E24">
-        <v>1.001680659118452</v>
+        <v>1.001121626040521</v>
       </c>
       <c r="F24">
-        <v>1.027638582494159</v>
+        <v>1.027029377986727</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050172105226967</v>
+        <v>1.049737035673908</v>
       </c>
       <c r="J24">
-        <v>1.021065215880053</v>
+        <v>1.0204157326481</v>
       </c>
       <c r="K24">
-        <v>1.035262107352063</v>
+        <v>1.034436501673781</v>
       </c>
       <c r="L24">
-        <v>1.015678324642806</v>
+        <v>1.015129073258024</v>
       </c>
       <c r="M24">
-        <v>1.04119711673624</v>
+        <v>1.04059789109827</v>
       </c>
       <c r="N24">
-        <v>1.02251524560442</v>
+        <v>1.021251965184729</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041177144714521</v>
+        <v>1.040702898088238</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036054917155974</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035485012580137</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02152307880964</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000355049545608</v>
+        <v>0.9989826381800225</v>
       </c>
       <c r="D25">
-        <v>1.026253369922197</v>
+        <v>1.02481325543089</v>
       </c>
       <c r="E25">
-        <v>1.007177549270426</v>
+        <v>1.00601123826913</v>
       </c>
       <c r="F25">
-        <v>1.032393954760329</v>
+        <v>1.031319207542053</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051831311968792</v>
+        <v>1.051082433976718</v>
       </c>
       <c r="J25">
-        <v>1.024870470762361</v>
+        <v>1.023544289183279</v>
       </c>
       <c r="K25">
-        <v>1.038457361410554</v>
+        <v>1.037038212877073</v>
       </c>
       <c r="L25">
-        <v>1.01966545553929</v>
+        <v>1.018516948749936</v>
       </c>
       <c r="M25">
-        <v>1.044509379376291</v>
+        <v>1.043450037031616</v>
       </c>
       <c r="N25">
-        <v>1.026325904385128</v>
+        <v>1.022910058227715</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043798571313707</v>
+        <v>1.042960176206261</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038311261075281</v>
+        <v>1.03732138283679</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02205226506187</v>
       </c>
     </row>
   </sheetData>
